--- a/JupyterNotebooks/AveragedIntensites/alpha2F-HW40.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha2F-HW40.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="alpha2F-HW40.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="alpha2F" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>

--- a/JupyterNotebooks/AveragedIntensites/alpha2F-HW40.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha2F-HW40.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>HKL</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1064,6 +1064,47 @@
         <v>0.9973567447152766</v>
       </c>
     </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>0.9917500818181104</v>
+      </c>
+      <c r="D16">
+        <v>1.00398004565772</v>
+      </c>
+      <c r="E16">
+        <v>0.9983221536969686</v>
+      </c>
+      <c r="F16">
+        <v>0.9917500818181104</v>
+      </c>
+      <c r="G16">
+        <v>0.9993463988198579</v>
+      </c>
+      <c r="H16">
+        <v>0.9929919182923702</v>
+      </c>
+      <c r="I16">
+        <v>0.9952941176470588</v>
+      </c>
+      <c r="J16">
+        <v>1.00398004565772</v>
+      </c>
+      <c r="K16">
+        <v>1.001151099677344</v>
+      </c>
+      <c r="L16">
+        <v>0.9964505907477272</v>
+      </c>
+      <c r="M16">
+        <v>0.9969474526553476</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/JupyterNotebooks/AveragedIntensites/alpha2F-HW40.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha2F-HW40.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -498,37 +501,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1069,7 +1072,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>0.9917500818181104</v>

--- a/JupyterNotebooks/AveragedIntensites/alpha2F-HW40.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha2F-HW40.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -449,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,37 +510,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -829,37 +838,37 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9891759999999986</v>
+        <v>0.9917500818181104</v>
       </c>
       <c r="D10">
-        <v>1.024568000000002</v>
+        <v>1.00398004565772</v>
       </c>
       <c r="E10">
-        <v>0.9856279999999995</v>
+        <v>0.9983221536969686</v>
       </c>
       <c r="F10">
-        <v>0.9891759999999986</v>
+        <v>0.9917500818181104</v>
       </c>
       <c r="G10">
-        <v>1.013736</v>
+        <v>0.9993463988198579</v>
       </c>
       <c r="H10">
-        <v>0.9939719999999989</v>
+        <v>0.9929919182923702</v>
       </c>
       <c r="I10">
-        <v>0.9916720000000001</v>
+        <v>0.9952941176470588</v>
       </c>
       <c r="J10">
-        <v>1.024568000000002</v>
+        <v>1.00398004565772</v>
       </c>
       <c r="K10">
-        <v>1.005098000000001</v>
+        <v>1.001151099677344</v>
       </c>
       <c r="L10">
-        <v>0.9971369999999997</v>
+        <v>0.9964505907477272</v>
       </c>
       <c r="M10">
-        <v>0.9997919999999998</v>
+        <v>0.9969474526553476</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -870,37 +879,37 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9936249999999993</v>
+        <v>0.9998580257616398</v>
       </c>
       <c r="D11">
-        <v>1.03</v>
+        <v>0.9803478011591985</v>
       </c>
       <c r="E11">
-        <v>0.98</v>
+        <v>0.9999787357187869</v>
       </c>
       <c r="F11">
-        <v>0.9936249999999993</v>
+        <v>0.9998580257616398</v>
       </c>
       <c r="G11">
-        <v>1.02</v>
+        <v>0.9851376176462555</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>1.010729084797579</v>
       </c>
       <c r="I11">
-        <v>0.99</v>
+        <v>1.002094307701241</v>
       </c>
       <c r="J11">
-        <v>1.03</v>
+        <v>0.9803478011591985</v>
       </c>
       <c r="K11">
-        <v>1.005</v>
+        <v>0.9901632684389927</v>
       </c>
       <c r="L11">
-        <v>0.9993124999999996</v>
+        <v>0.9950106471003162</v>
       </c>
       <c r="M11">
-        <v>1.002270833333333</v>
+        <v>0.9963575954641168</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -911,37 +920,37 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9952883510272009</v>
+        <v>0.9997889145754573</v>
       </c>
       <c r="D12">
-        <v>1.016697255935997</v>
+        <v>0.9806081777437193</v>
       </c>
       <c r="E12">
-        <v>0.9874073931776012</v>
+        <v>0.9999233910826922</v>
       </c>
       <c r="F12">
-        <v>0.9952883510272009</v>
+        <v>0.9997889145754573</v>
       </c>
       <c r="G12">
-        <v>1.010231527833597</v>
+        <v>0.9853164160587775</v>
       </c>
       <c r="H12">
-        <v>0.9975516719104014</v>
+        <v>1.010457457135877</v>
       </c>
       <c r="I12">
-        <v>0.9929900587008014</v>
+        <v>1.002040855315162</v>
       </c>
       <c r="J12">
-        <v>1.016697255935997</v>
+        <v>0.9806081777437193</v>
       </c>
       <c r="K12">
-        <v>1.002052324556799</v>
+        <v>0.9902657844132058</v>
       </c>
       <c r="L12">
-        <v>0.9986703377920001</v>
+        <v>0.9950273494943316</v>
       </c>
       <c r="M12">
-        <v>1.000027709764266</v>
+        <v>0.9963558686519476</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -952,37 +961,37 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9973810914737039</v>
+        <v>0.9998549418076437</v>
       </c>
       <c r="D13">
-        <v>0.9977039123396846</v>
+        <v>0.9804208854006838</v>
       </c>
       <c r="E13">
-        <v>0.9972887469786561</v>
+        <v>0.9999661422583563</v>
       </c>
       <c r="F13">
-        <v>0.9973810914737039</v>
+        <v>0.9998549418076437</v>
       </c>
       <c r="G13">
-        <v>0.9974735170355726</v>
+        <v>0.9851805794357783</v>
       </c>
       <c r="H13">
-        <v>0.997582915918265</v>
+        <v>1.01061473478673</v>
       </c>
       <c r="I13">
-        <v>0.9975960388977326</v>
+        <v>1.002077917222269</v>
       </c>
       <c r="J13">
-        <v>0.9977039123396846</v>
+        <v>0.9804208854006838</v>
       </c>
       <c r="K13">
-        <v>0.9974963296591703</v>
+        <v>0.9901935138295201</v>
       </c>
       <c r="L13">
-        <v>0.9974387105664372</v>
+        <v>0.9950242278185819</v>
       </c>
       <c r="M13">
-        <v>0.9975043704406025</v>
+        <v>0.9963525334852434</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -993,37 +1002,37 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9996018759134899</v>
+        <v>0.9891759999999986</v>
       </c>
       <c r="D14">
-        <v>0.9957941903194829</v>
+        <v>1.024568000000002</v>
       </c>
       <c r="E14">
-        <v>1.000558675344193</v>
+        <v>0.9856279999999995</v>
       </c>
       <c r="F14">
-        <v>0.9996018759134899</v>
+        <v>0.9891759999999986</v>
       </c>
       <c r="G14">
-        <v>0.9973942844441599</v>
+        <v>1.013736</v>
       </c>
       <c r="H14">
-        <v>0.9993231458200004</v>
+        <v>0.9939719999999989</v>
       </c>
       <c r="I14">
-        <v>0.9983616986462573</v>
+        <v>0.9916720000000001</v>
       </c>
       <c r="J14">
-        <v>0.9957941903194829</v>
+        <v>1.024568000000002</v>
       </c>
       <c r="K14">
-        <v>0.998176432831838</v>
+        <v>1.005098000000001</v>
       </c>
       <c r="L14">
-        <v>0.998889154372664</v>
+        <v>0.9971369999999997</v>
       </c>
       <c r="M14">
-        <v>0.9985056450812638</v>
+        <v>0.9997919999999998</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1034,37 +1043,37 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9978881304532299</v>
+        <v>0.9936249999999993</v>
       </c>
       <c r="D15">
-        <v>0.9947627792378595</v>
+        <v>1.03</v>
       </c>
       <c r="E15">
-        <v>0.9981874446985601</v>
+        <v>0.98</v>
       </c>
       <c r="F15">
-        <v>0.9978881304532299</v>
+        <v>0.9936249999999993</v>
       </c>
       <c r="G15">
-        <v>0.9949480237959699</v>
+        <v>1.02</v>
       </c>
       <c r="H15">
-        <v>1.000228881941848</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>0.9981252081641926</v>
+        <v>0.99</v>
       </c>
       <c r="J15">
-        <v>0.9947627792378595</v>
+        <v>1.03</v>
       </c>
       <c r="K15">
-        <v>0.9964751119682098</v>
+        <v>1.005</v>
       </c>
       <c r="L15">
-        <v>0.9971816212107198</v>
+        <v>0.9993124999999996</v>
       </c>
       <c r="M15">
-        <v>0.9973567447152766</v>
+        <v>1.002270833333333</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1075,37 +1084,160 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9917500818181104</v>
+        <v>0.9952883510272009</v>
       </c>
       <c r="D16">
-        <v>1.00398004565772</v>
+        <v>1.016697255935997</v>
       </c>
       <c r="E16">
-        <v>0.9983221536969686</v>
+        <v>0.9874073931776012</v>
       </c>
       <c r="F16">
-        <v>0.9917500818181104</v>
+        <v>0.9952883510272009</v>
       </c>
       <c r="G16">
-        <v>0.9993463988198579</v>
+        <v>1.010231527833597</v>
       </c>
       <c r="H16">
-        <v>0.9929919182923702</v>
+        <v>0.9975516719104014</v>
       </c>
       <c r="I16">
-        <v>0.9952941176470588</v>
+        <v>0.9929900587008014</v>
       </c>
       <c r="J16">
-        <v>1.00398004565772</v>
+        <v>1.016697255935997</v>
       </c>
       <c r="K16">
-        <v>1.001151099677344</v>
+        <v>1.002052324556799</v>
       </c>
       <c r="L16">
-        <v>0.9964505907477272</v>
+        <v>0.9986703377920001</v>
       </c>
       <c r="M16">
-        <v>0.9969474526553476</v>
+        <v>1.000027709764266</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.9973810914737039</v>
+      </c>
+      <c r="D17">
+        <v>0.9977039123396846</v>
+      </c>
+      <c r="E17">
+        <v>0.9972887469786561</v>
+      </c>
+      <c r="F17">
+        <v>0.9973810914737039</v>
+      </c>
+      <c r="G17">
+        <v>0.9974735170355726</v>
+      </c>
+      <c r="H17">
+        <v>0.997582915918265</v>
+      </c>
+      <c r="I17">
+        <v>0.9975960388977326</v>
+      </c>
+      <c r="J17">
+        <v>0.9977039123396846</v>
+      </c>
+      <c r="K17">
+        <v>0.9974963296591703</v>
+      </c>
+      <c r="L17">
+        <v>0.9974387105664372</v>
+      </c>
+      <c r="M17">
+        <v>0.9975043704406025</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>0.9996018759134899</v>
+      </c>
+      <c r="D18">
+        <v>0.9957941903194829</v>
+      </c>
+      <c r="E18">
+        <v>1.000558675344193</v>
+      </c>
+      <c r="F18">
+        <v>0.9996018759134899</v>
+      </c>
+      <c r="G18">
+        <v>0.9973942844441599</v>
+      </c>
+      <c r="H18">
+        <v>0.9993231458200004</v>
+      </c>
+      <c r="I18">
+        <v>0.9983616986462573</v>
+      </c>
+      <c r="J18">
+        <v>0.9957941903194829</v>
+      </c>
+      <c r="K18">
+        <v>0.998176432831838</v>
+      </c>
+      <c r="L18">
+        <v>0.998889154372664</v>
+      </c>
+      <c r="M18">
+        <v>0.9985056450812638</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.9978881304532299</v>
+      </c>
+      <c r="D19">
+        <v>0.9947627792378595</v>
+      </c>
+      <c r="E19">
+        <v>0.9981874446985601</v>
+      </c>
+      <c r="F19">
+        <v>0.9978881304532299</v>
+      </c>
+      <c r="G19">
+        <v>0.9949480237959699</v>
+      </c>
+      <c r="H19">
+        <v>1.000228881941848</v>
+      </c>
+      <c r="I19">
+        <v>0.9981252081641926</v>
+      </c>
+      <c r="J19">
+        <v>0.9947627792378595</v>
+      </c>
+      <c r="K19">
+        <v>0.9964751119682098</v>
+      </c>
+      <c r="L19">
+        <v>0.9971816212107198</v>
+      </c>
+      <c r="M19">
+        <v>0.9973567447152766</v>
       </c>
     </row>
   </sheetData>
